--- a/Rabobank EOD Request File.xlsx
+++ b/Rabobank EOD Request File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1 " sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>FeedId</t>
   </si>
@@ -222,6 +222,9 @@
       </rPr>
       <t>".</t>
     </r>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -361,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -391,10 +394,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,12 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -778,18 +778,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J8:J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="3" width="15.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="20" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -809,7 +812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -822,10 +825,12 @@
       <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -835,13 +840,15 @@
       <c r="C3" s="9">
         <v>100</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -851,23 +858,27 @@
       <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -875,5 +886,6 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>